--- a/linux.xlsx
+++ b/linux.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\linux\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\test-nri-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3077FB-8933-4D0F-AEA1-CDBB2E2D748A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B869956D-BA92-402B-9CEE-BF1D4CC384F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9E54D0CD-9E13-44E3-9B28-E25F72AF25D4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="主" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
@@ -2442,7 +2442,7 @@
   <dimension ref="A2:K167"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="C164" sqref="C164"/>
+      <selection activeCell="B163" sqref="B163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
